--- a/tests/testSubmission.xlsx.results.xlsx
+++ b/tests/testSubmission.xlsx.results.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -30,12 +30,12 @@
     <sheet name="Q7P" sheetId="21" r:id="rId21"/>
     <sheet name="Q10P" sheetId="22" r:id="rId22"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="138">
   <si>
     <t>Code</t>
   </si>
@@ -101,19 +101,6 @@
   </si>
   <si>
     <t>Overcoded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Correct principal diagnosis, 1 mark
-Unordered Group P, set([u'I25.11']) entirely correct, 0.5 marks
-Ordered Group A, answer is 4     T81.2
-5     S25.0
-6     Y60.0
-7    Y92.22
-Name: Code, dtype: object, completely correct order, 0.5 marks
-Correct group ordering, 0.5 marks
-You had 11 correct codes, gaining 5.500000 marks
-You had 1 overcodes, losing 0.500000 marks</t>
   </si>
   <si>
     <t>J15.1</t>
@@ -683,8 +670,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -747,6 +734,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -825,6 +817,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -859,6 +852,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1034,195 +1028,161 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>0</v>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>3</v>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>4</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>5</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>6</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>11</v>
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1232,14 +1192,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1259,33 +1219,33 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>79</v>
       </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>80</v>
-      </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
@@ -1296,46 +1256,46 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -1347,14 +1307,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1374,12 +1334,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -1391,15 +1351,15 @@
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1411,52 +1371,52 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -1468,14 +1428,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1495,12 +1455,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -1512,122 +1472,122 @@
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
@@ -1639,14 +1599,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1666,26 +1626,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -1697,14 +1657,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1724,18 +1684,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1744,14 +1704,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1771,26 +1731,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -1802,14 +1762,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1829,26 +1789,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -1860,14 +1820,14 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1887,12 +1847,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -1904,150 +1864,150 @@
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
@@ -2059,14 +2019,14 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2086,26 +2046,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -2117,14 +2077,14 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2144,18 +2104,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2164,14 +2124,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2191,12 +2151,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -2208,54 +2168,54 @@
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -2267,14 +2227,14 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2294,33 +2254,33 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>121</v>
       </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>122</v>
-      </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
@@ -2331,142 +2291,142 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
@@ -2478,14 +2438,14 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2505,26 +2465,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -2536,52 +2496,52 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -2593,14 +2553,14 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2620,26 +2580,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -2651,14 +2611,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2678,12 +2638,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -2695,37 +2655,37 @@
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -2737,12 +2697,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -2754,12 +2714,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -2771,12 +2731,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -2788,7 +2748,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2799,12 +2759,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
@@ -2816,14 +2776,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2843,12 +2803,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -2860,190 +2820,190 @@
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
@@ -3055,14 +3015,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3082,12 +3042,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -3099,10 +3059,10 @@
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3119,12 +3079,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -3136,12 +3096,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -3153,18 +3113,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -3176,14 +3136,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3203,37 +3163,37 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>58</v>
       </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>59</v>
-      </c>
       <c r="F3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
@@ -3245,14 +3205,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3272,12 +3232,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -3289,15 +3249,15 @@
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -3309,12 +3269,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -3326,7 +3286,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3343,18 +3303,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3365,46 +3325,46 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
@@ -3416,14 +3376,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3443,48 +3403,48 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -3496,14 +3456,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3523,81 +3483,81 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
